--- a/doc_new/4.服务器配置文档/通用使用配置.xlsx
+++ b/doc_new/4.服务器配置文档/通用使用配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23145" windowHeight="13395"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="server_picture_use_config" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="90">
   <si>
     <t>物品表id</t>
   </si>
@@ -62,13 +62,241 @@
     <t>精良图鉴箱</t>
   </si>
   <si>
-    <t>2001-2044|2045</t>
-  </si>
-  <si>
-    <t>2001-2044的卡加上2045的卡</t>
-  </si>
-  <si>
-    <t>2_30|4_50|5_20</t>
+    <t>2001-2017|2019-2045</t>
+  </si>
+  <si>
+    <t>可以开出一张随机精良级（C级）卡片</t>
+  </si>
+  <si>
+    <t>2_100|null</t>
+  </si>
+  <si>
+    <t>史诗图鉴箱</t>
+  </si>
+  <si>
+    <t>2501-2514|2516-2560</t>
+  </si>
+  <si>
+    <t>可以开出一张随机史诗级（B级）卡片</t>
+  </si>
+  <si>
+    <t>3_100|null</t>
+  </si>
+  <si>
+    <t>传说图鉴箱</t>
+  </si>
+  <si>
+    <t>2901-2922|null</t>
+  </si>
+  <si>
+    <t>可以开出一张随机传说级（A级）卡片</t>
+  </si>
+  <si>
+    <t>4_100|null</t>
+  </si>
+  <si>
+    <t>元素大陆的图鉴箱</t>
+  </si>
+  <si>
+    <t>2001|2011|2022|2034|2012|2036|2037|2004|2501|2508|2517|2531|2043|2505|2533|2017|2040|2548|2019-2021|2549|2031|2534|2027|2511|2901|2524|2906|2538|2539|2553|2554|2918-2921|3205</t>
+  </si>
+  <si>
+    <t>可以随机开出一张地图·元素大陆出现的所有怪物的卡片</t>
+  </si>
+  <si>
+    <t>2_64|3_30|4_5|5_1</t>
+  </si>
+  <si>
+    <t>熔火炼狱的图鉴箱</t>
+  </si>
+  <si>
+    <t>2001-2010|2501-2514|2901-2905|2922|3201</t>
+  </si>
+  <si>
+    <t>可以随机开出一张地图·熔火炼狱出现的所有怪物的卡片</t>
+  </si>
+  <si>
+    <t>极北之地的图鉴箱</t>
+  </si>
+  <si>
+    <t>2022-2033|2531-2545|2911-2913|3203</t>
+  </si>
+  <si>
+    <t>可以随机开出一张地图·极北之地出现的所有怪物的卡片</t>
+  </si>
+  <si>
+    <t>狂风沙漠的图鉴箱</t>
+  </si>
+  <si>
+    <t>2034-2045|2546-2559|2914-2917|3204</t>
+  </si>
+  <si>
+    <t>可以随机开出一张地图·狂风沙漠出现的所有怪物的卡片</t>
+  </si>
+  <si>
+    <t>雷霆之地的图鉴箱</t>
+  </si>
+  <si>
+    <t>2011-2021|2516-2530|2906-2910|3202</t>
+  </si>
+  <si>
+    <t>可以随机开出一张地图·雷霆之地出现的所有怪物的卡片</t>
+  </si>
+  <si>
+    <t>熔火炼狱的史诗图鉴图鉴箱</t>
+  </si>
+  <si>
+    <t>2501-2514|null</t>
+  </si>
+  <si>
+    <t>可以随机开出一张地图·熔火炼狱出现的史诗级（B级）卡片</t>
+  </si>
+  <si>
+    <t>极北之地的史诗图鉴图鉴箱</t>
+  </si>
+  <si>
+    <t>2531-2545|null</t>
+  </si>
+  <si>
+    <t>可以随机开出一张地图·极北之地出现的史诗级（B级）卡片</t>
+  </si>
+  <si>
+    <t>狂风沙漠的史诗图鉴图鉴箱</t>
+  </si>
+  <si>
+    <t>2546-2559|null</t>
+  </si>
+  <si>
+    <t>可以随机开出一张地图·狂风沙漠出现的史诗级（B级）卡片</t>
+  </si>
+  <si>
+    <t>雷霆之地的史诗图鉴图鉴箱</t>
+  </si>
+  <si>
+    <t>2516-2530|null</t>
+  </si>
+  <si>
+    <t>可以随机开出一张地图·雷霆之地出现的史诗级（B级）卡片</t>
+  </si>
+  <si>
+    <t>熔火炼狱的传说图鉴图鉴箱</t>
+  </si>
+  <si>
+    <t>2901-2905|2922</t>
+  </si>
+  <si>
+    <t>可以随机开出一张地图·熔火炼狱出现的传说级（A级）卡片</t>
+  </si>
+  <si>
+    <t>极北之地的传说图鉴图鉴箱</t>
+  </si>
+  <si>
+    <t>2911-2913|null</t>
+  </si>
+  <si>
+    <t>可以随机开出一张地图·极北之地出现的传说级（A级）卡片</t>
+  </si>
+  <si>
+    <t>狂风沙漠的传说图鉴图鉴箱</t>
+  </si>
+  <si>
+    <t>2914-2917|null</t>
+  </si>
+  <si>
+    <t>可以随机开出一张地图·狂风沙漠出现的传说级（A级）卡片</t>
+  </si>
+  <si>
+    <t>雷霆之地的传说图鉴图鉴箱</t>
+  </si>
+  <si>
+    <t>2906-2910|null</t>
+  </si>
+  <si>
+    <t>可以随机开出一张地图·雷霆之地出现的传说级（A级）卡片</t>
+  </si>
+  <si>
+    <t>精良图鉴箱（自选）</t>
+  </si>
+  <si>
+    <t>可以自选获得一张精良级（C级）卡片</t>
+  </si>
+  <si>
+    <t>null|null</t>
+  </si>
+  <si>
+    <t>史诗图鉴箱（自选）</t>
+  </si>
+  <si>
+    <t>可以自选获得一张史诗级（B级）卡片</t>
+  </si>
+  <si>
+    <t>传说图鉴箱（自选）</t>
+  </si>
+  <si>
+    <t>可以自选获得一张传说级（A级）卡片</t>
+  </si>
+  <si>
+    <t>不朽图鉴箱（自选）</t>
+  </si>
+  <si>
+    <t>3201-3205|null</t>
+  </si>
+  <si>
+    <t>可以自选获得一张不朽级（S级）卡片</t>
+  </si>
+  <si>
+    <t>熔火炼狱的图鉴箱（自选）</t>
+  </si>
+  <si>
+    <t>可以自选获得一张地图·元素大陆出现的所有怪物的卡片</t>
+  </si>
+  <si>
+    <t>极北之地的图鉴箱（自选）</t>
+  </si>
+  <si>
+    <t>可以自选获得一张地图·熔火炼狱出现的所有怪物的卡片</t>
+  </si>
+  <si>
+    <t>狂风沙漠的图鉴箱（自选）</t>
+  </si>
+  <si>
+    <t>可以自选获得一张地图·极北之地出现的所有怪物的卡片</t>
+  </si>
+  <si>
+    <t>雷霆之地的图鉴箱（自选）</t>
+  </si>
+  <si>
+    <t>可以自选获得一张地图·狂风沙漠出现的所有怪物的卡片</t>
+  </si>
+  <si>
+    <t>元素大陆图的鉴箱（自选）</t>
+  </si>
+  <si>
+    <t>可以自选获得一张地图·雷霆之地出现的所有怪物的卡片</t>
+  </si>
+  <si>
+    <t>1级自选魂石箱</t>
+  </si>
+  <si>
+    <t>10000-10017|null</t>
+  </si>
+  <si>
+    <t>2级自选魂石箱</t>
+  </si>
+  <si>
+    <t>10101-10118|null</t>
+  </si>
+  <si>
+    <t>3级自选魂石箱</t>
+  </si>
+  <si>
+    <t>10201-10218|null</t>
+  </si>
+  <si>
+    <t>4级自选魂石箱</t>
+  </si>
+  <si>
+    <t>10301-10318|null</t>
   </si>
 </sst>
 </file>
@@ -81,7 +309,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,15 +318,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
+      <color rgb="FF08090C"/>
+      <name val="Microsoft YaHei"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF08090C"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
@@ -247,7 +481,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -256,6 +490,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -447,7 +687,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -460,11 +700,87 @@
         <color theme="1"/>
       </left>
       <right style="thin">
-        <color theme="1" tint="0.66"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
         <color theme="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.66"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.66"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.66"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.66"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color theme="1" tint="0.66"/>
       </bottom>
@@ -477,9 +793,7 @@
       <right style="thin">
         <color theme="1" tint="0.66"/>
       </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color theme="1" tint="0.66"/>
       </bottom>
@@ -492,9 +806,7 @@
       <right style="thin">
         <color theme="1"/>
       </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color theme="1" tint="0.66"/>
       </bottom>
@@ -708,55 +1020,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -771,112 +1080,151 @@
     <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1377,7 +1725,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{5AE3308F-A7A8-4FCE-B405-4F893F9846E1}">
+    <tableStyle name="中色系标题行镶边行表格样式_372eea" count="7" xr9:uid="{48EB6109-C14A-435A-9B30-0E3311DC7286}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1386,7 +1734,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{88C8DE55-E77E-4A5B-82AB-6B2741EBA9DE}">
+    <tableStyle name="浅色系标题行表格样式_0af9f8" count="10" xr9:uid="{F25B53C5-2937-4457-8316-6C6DD87169BF}">
       <tableStyleElement type="wholeTable" dxfId="16"/>
       <tableStyleElement type="headerRow" dxfId="15"/>
       <tableStyleElement type="totalRow" dxfId="14"/>
@@ -1657,22 +2005,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="18.375" customWidth="1"/>
-    <col min="2" max="2" width="22.75" customWidth="1"/>
-    <col min="3" max="5" width="39.125" customWidth="1"/>
-    <col min="6" max="6" width="20.25" customWidth="1"/>
+    <col min="1" max="1" width="10.175" customWidth="1"/>
+    <col min="2" max="2" width="24.0083333333333" customWidth="1"/>
+    <col min="3" max="4" width="40.625" customWidth="1"/>
+    <col min="5" max="5" width="20.0083333333333" customWidth="1"/>
+    <col min="6" max="6" width="36.625" customWidth="1"/>
     <col min="8" max="8" width="22.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="75" customHeight="1" spans="1:6">
+    <row r="1" customFormat="1" ht="35" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1692,7 +2041,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="22.5" customHeight="1" spans="1:6">
+    <row r="2" customFormat="1" ht="18.5" customHeight="1" spans="1:6">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -1708,7 +2057,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="88.5" customHeight="1" spans="1:6">
+    <row r="3" ht="18.5" customHeight="1" spans="1:6">
       <c r="A3" s="9">
         <v>3501</v>
       </c>
@@ -1718,14 +2067,562 @@
       <c r="C3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="11">
-        <v>2</v>
-      </c>
-      <c r="F3" s="12" t="s">
+      <c r="E3" s="12">
+        <v>1</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="4" ht="18.5" customHeight="1" spans="1:6">
+      <c r="A4" s="14">
+        <v>3502</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="17">
+        <v>1</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" ht="18.5" customHeight="1" spans="1:6">
+      <c r="A5" s="14">
+        <v>3503</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="17">
+        <v>1</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" ht="68" customHeight="1" spans="1:6">
+      <c r="A6" s="14">
+        <v>3504</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="17">
+        <v>1</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" ht="35" customHeight="1" spans="1:6">
+      <c r="A7" s="14">
+        <v>3505</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="17">
+        <v>1</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" ht="35" customHeight="1" spans="1:6">
+      <c r="A8" s="14">
+        <v>3506</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="17">
+        <v>1</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" ht="35" customHeight="1" spans="1:6">
+      <c r="A9" s="14">
+        <v>3507</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="17">
+        <v>1</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" ht="35" customHeight="1" spans="1:6">
+      <c r="A10" s="14">
+        <v>3508</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="17">
+        <v>1</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" ht="35" customHeight="1" spans="1:6">
+      <c r="A11" s="14">
+        <v>3509</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="17">
+        <v>1</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" ht="35" customHeight="1" spans="1:6">
+      <c r="A12" s="14">
+        <v>3510</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="17">
+        <v>1</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" ht="35" customHeight="1" spans="1:6">
+      <c r="A13" s="14">
+        <v>3511</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="17">
+        <v>1</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" ht="35" customHeight="1" spans="1:6">
+      <c r="A14" s="14">
+        <v>3512</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="17">
+        <v>1</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" ht="35" customHeight="1" spans="1:6">
+      <c r="A15" s="14">
+        <v>3513</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="17">
+        <v>1</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" ht="35" customHeight="1" spans="1:6">
+      <c r="A16" s="14">
+        <v>3514</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="17">
+        <v>1</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" ht="35" customHeight="1" spans="1:6">
+      <c r="A17" s="14">
+        <v>3515</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="17">
+        <v>1</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" ht="35" customHeight="1" spans="1:6">
+      <c r="A18" s="14">
+        <v>3516</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="17">
+        <v>1</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" ht="18.5" customHeight="1" spans="1:6">
+      <c r="A19" s="14">
+        <v>3517</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="17">
+        <v>1</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" ht="18.5" customHeight="1" spans="1:6">
+      <c r="A20" s="14">
+        <v>3518</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="17">
+        <v>1</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" ht="18.5" customHeight="1" spans="1:6">
+      <c r="A21" s="14">
+        <v>3519</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="17">
+        <v>1</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" ht="18.5" customHeight="1" spans="1:6">
+      <c r="A22" s="14">
+        <v>3520</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="17">
+        <v>1</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" ht="35" customHeight="1" spans="1:6">
+      <c r="A23" s="14">
+        <v>3521</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="17">
+        <v>1</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" ht="35" customHeight="1" spans="1:6">
+      <c r="A24" s="14">
+        <v>3522</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" s="17">
+        <v>1</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" ht="35" customHeight="1" spans="1:6">
+      <c r="A25" s="14">
+        <v>3523</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="17">
+        <v>1</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" ht="35" customHeight="1" spans="1:6">
+      <c r="A26" s="14">
+        <v>3524</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="17">
+        <v>1</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" ht="68" customHeight="1" spans="1:6">
+      <c r="A27" s="19">
+        <v>3525</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" s="22">
+        <v>1</v>
+      </c>
+      <c r="F27" s="23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" ht="16.5" spans="1:6">
+      <c r="A28" s="24">
+        <v>10401</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" ht="16.5" spans="1:6">
+      <c r="A29" s="24">
+        <v>10402</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" t="s">
+        <v>85</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" ht="16.5" spans="1:6">
+      <c r="A30" s="24">
+        <v>10403</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" t="s">
+        <v>87</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" s="23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" ht="16.5" spans="1:6">
+      <c r="A31" s="24">
+        <v>10404</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" t="s">
+        <v>89</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" s="23" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
